--- a/dashboard_vendas.xlsx
+++ b/dashboard_vendas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aline.Aline\Desktop\GitHub\Projeto 1 - Dashboard de Vendas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BD4631-B6BD-4F51-A362-947EFAC3250A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1399EC2F-384C-4C02-9E41-3EB2C063812D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{498D081F-7933-4428-8AC1-CF8B845BEAC0}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -133,7 +133,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,13 +167,33 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -226,7 +246,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -246,53 +266,144 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Título" xfId="1" builtinId="15"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="29">
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
         <color theme="0"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
+        <color theme="0"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -498,6 +609,40 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -518,45 +663,18 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Dashboard de Vendas.xlsx]Dashboard!Tabela dinâmica2</c:name>
+    <c:name>[dashboard_vendas.xlsx]Dashboard!Tabela dinâmica2</c:name>
     <c:fmtId val="22"/>
   </c:pivotSource>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
@@ -564,21 +682,24 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -593,43 +714,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="lt2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -682,7 +767,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Dashboard!$B$3</c:f>
+              <c:f>Dashboard!$D$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -695,21 +780,24 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
                     <a:satMod val="103000"/>
                     <a:lumMod val="102000"/>
                     <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
                     <a:satMod val="110000"/>
                     <a:lumMod val="100000"/>
                     <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
                     <a:lumMod val="99000"/>
                     <a:satMod val="120000"/>
                     <a:shade val="78000"/>
@@ -726,7 +814,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Dashboard!$A$4:$A$10</c:f>
+              <c:f>Dashboard!$C$7:$C$13</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -752,7 +840,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dashboard!$B$4:$B$10</c:f>
+              <c:f>Dashboard!$D$7:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -905,34 +993,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -980,7 +1040,6 @@
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
@@ -1000,69 +1059,61 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Dashboard de Vendas.xlsx]Dashboard!Tabela dinâmica3</c:name>
+    <c:name>[dashboard_vendas.xlsx]Dashboard!Tabela dinâmica3</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
-          <a:scene3d>
-            <a:camera prst="orthographicFront"/>
-            <a:lightRig rig="brightRoom" dir="t"/>
-          </a:scene3d>
-          <a:sp3d prstMaterial="flat">
-            <a:bevelT w="50800" h="101600" prst="angle"/>
-            <a:contourClr>
-              <a:srgbClr val="000000"/>
-            </a:contourClr>
-          </a:sp3d>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
           <c:symbol val="circle"/>
@@ -1086,7 +1137,10 @@
               <a:pPr>
                 <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1096,17 +1150,237 @@
               <a:endParaRPr lang="pt-BR"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="inEnd"/>
+          <c:dLblPos val="bestFit"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="dk1">
+                  <a:tint val="55000"/>
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="dk1">
+                  <a:tint val="55000"/>
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="dk1">
+                  <a:tint val="55000"/>
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="dk1">
+                  <a:tint val="75000"/>
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="dk1">
+                  <a:tint val="75000"/>
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="dk1">
+                  <a:tint val="75000"/>
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="dk1">
+                  <a:tint val="98500"/>
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="dk1">
+                  <a:tint val="98500"/>
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="dk1">
+                  <a:tint val="98500"/>
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="dk1">
+                  <a:tint val="30000"/>
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="dk1">
+                  <a:tint val="30000"/>
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="dk1">
+                  <a:tint val="30000"/>
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -1118,7 +1392,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Dashboard!$B$20</c:f>
+              <c:f>Dashboard!$D$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1131,116 +1405,251 @@
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:tint val="88500"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="dk1">
+                      <a:tint val="88500"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:tint val="88500"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0EF2-45E3-8CE2-DC6BCC934DA4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:tint val="55000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="dk1">
+                      <a:tint val="55000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:tint val="55000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0EF2-45E3-8CE2-DC6BCC934DA4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:tint val="75000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="dk1">
+                      <a:tint val="75000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:tint val="75000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-0EF2-45E3-8CE2-DC6BCC934DA4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:tint val="98500"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="dk1">
+                      <a:tint val="98500"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:tint val="98500"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-0EF2-45E3-8CE2-DC6BCC934DA4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:tint val="30000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="dk1">
+                      <a:tint val="30000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:tint val="30000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-0EF2-45E3-8CE2-DC6BCC934DA4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1259,7 +1668,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1269,12 +1681,12 @@
                 <a:endParaRPr lang="pt-BR"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="inEnd"/>
+            <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
+            <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
@@ -1297,7 +1709,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Dashboard!$A$21:$A$26</c:f>
+              <c:f>Dashboard!$C$25:$C$30</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1320,7 +1732,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dashboard!$B$21:$B$26</c:f>
+              <c:f>Dashboard!$D$25:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1349,7 +1761,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1460,81 +1872,55 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
   <cs:variation>
-    <a:lumMod val="60000"/>
+    <a:tint val="88500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
+    <a:tint val="55000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
+    <a:tint val="75000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
+    <a:tint val="98500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50000"/>
+    <a:tint val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
+    <a:tint val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
+    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
   <cs:variation>
-    <a:lumMod val="60000"/>
+    <a:tint val="88500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
+    <a:tint val="55000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
+    <a:tint val="75000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
+    <a:tint val="98500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50000"/>
+    <a:tint val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
+    <a:tint val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
+    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
@@ -2009,7 +2395,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2032,6 +2418,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -2039,7 +2436,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2062,9 +2459,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -2096,60 +2496,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:scene3d>
-        <a:camera prst="orthographicFront"/>
-        <a:lightRig rig="brightRoom" dir="t"/>
-      </a:scene3d>
-      <a:sp3d prstMaterial="flat">
-        <a:bevelT w="50800" h="101600" prst="angle"/>
-        <a:contourClr>
-          <a:srgbClr val="000000"/>
-        </a:contourClr>
-      </a:sp3d>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2158,22 +2533,22 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
@@ -2182,8 +2557,8 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -2225,23 +2600,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2288,14 +2662,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -2346,8 +2714,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2385,20 +2753,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2411,6 +2779,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2442,7 +2821,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" i="0" kern="1200" cap="all" spc="50" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2451,14 +2830,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2479,20 +2857,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2513,14 +2890,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2529,16 +2900,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2565,16 +2936,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2601,16 +2972,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -2646,7 +3017,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7991475" y="2200275"/>
+              <a:off x="0" y="371475"/>
               <a:ext cx="1828800" cy="2667000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2679,16 +3050,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -2724,7 +3095,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9820275" y="2200275"/>
+              <a:off x="0" y="3028950"/>
               <a:ext cx="1828800" cy="2667000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2757,16 +3128,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -2802,7 +3173,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11649075" y="2200275"/>
+              <a:off x="0" y="5686425"/>
               <a:ext cx="1828800" cy="2667000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2955,8 +3326,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3093E482-1F05-4155-93E0-F8F688DDAAB0}" name="Tabela dinâmica3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="6">
-  <location ref="A20:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3093E482-1F05-4155-93E0-F8F688DDAAB0}" name="Tabela dinâmica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="13">
+  <location ref="C24:D30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="14" showAll="0">
       <items count="7">
@@ -3020,12 +3391,98 @@
   <dataFields count="1">
     <dataField name="Soma de Valor Total" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <formats count="8">
+    <format dxfId="9">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="6">
     <chartFormat chart="3" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -3044,8 +3501,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EE21EE3C-280E-48C1-B768-6502F1BEEE94}" name="Tabela dinâmica2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="25">
-  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EE21EE3C-280E-48C1-B768-6502F1BEEE94}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="28">
+  <location ref="C6:D13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="14" showAll="0">
       <items count="7">
@@ -3122,6 +3579,32 @@
   <dataFields count="1">
     <dataField name="Soma de Valor Total" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
+  <formats count="8">
+    <format dxfId="19">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="18">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="16">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="15">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="13">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
   <chartFormats count="1">
     <chartFormat chart="22" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
@@ -3205,23 +3688,23 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Data" xr10:uid="{E6801B01-DAEE-428B-9C78-B0BE01406FC0}" cache="SegmentaçãodeDados_Data" caption="Data" rowHeight="257175"/>
-  <slicer name="Categoria" xr10:uid="{ABA849E6-88AB-4A0F-A09A-BFF7580918CD}" cache="SegmentaçãodeDados_Categoria" caption="Categoria" rowHeight="257175"/>
-  <slicer name="Região" xr10:uid="{B1F8E6E8-C1CD-4A27-BF5E-FADDFBF8ED55}" cache="SegmentaçãodeDados_Região" caption="Região" rowHeight="257175"/>
+  <slicer name="Data" xr10:uid="{E6801B01-DAEE-428B-9C78-B0BE01406FC0}" cache="SegmentaçãodeDados_Data" caption="Data" style="SlicerStyleOther1" rowHeight="257175"/>
+  <slicer name="Categoria" xr10:uid="{ABA849E6-88AB-4A0F-A09A-BFF7580918CD}" cache="SegmentaçãodeDados_Categoria" caption="Categoria" style="SlicerStyleOther1" rowHeight="257175"/>
+  <slicer name="Região" xr10:uid="{B1F8E6E8-C1CD-4A27-BF5E-FADDFBF8ED55}" cache="SegmentaçãodeDados_Região" caption="Região" style="SlicerStyleOther1" rowHeight="257175"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B987F90D-FCD6-4C28-9917-A0A7EABA813C}" name="Tabela1" displayName="Tabela1" ref="A1:G7" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowCellStyle="Título">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B987F90D-FCD6-4C28-9917-A0A7EABA813C}" name="Tabela1" displayName="Tabela1" ref="A1:G7" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" headerRowCellStyle="Título">
   <autoFilter ref="A1:G7" xr:uid="{B987F90D-FCD6-4C28-9917-A0A7EABA813C}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{4A597FD9-478F-4CC3-847E-C8046E7BF99F}" name="Data" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{50847C73-0430-4582-A07C-002AB7E18143}" name="Produto" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{9CFE24B8-CBCA-4C11-AF81-B1780146D40B}" name="Categoria" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{56884818-D63F-424F-A55E-D52EFA096455}" name="Quantidade" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{8C8730FC-DF7F-4A81-8BE7-FA8E83069F2F}" name="Valor Unitário" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{20A91DCD-305B-46AA-9499-C65F69F7C26A}" name="Valor Total" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{C46F9713-AFF5-45BB-8CC1-93B2BEFB07AC}" name="Região" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{4A597FD9-478F-4CC3-847E-C8046E7BF99F}" name="Data" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{50847C73-0430-4582-A07C-002AB7E18143}" name="Produto" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{9CFE24B8-CBCA-4C11-AF81-B1780146D40B}" name="Categoria" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{56884818-D63F-424F-A55E-D52EFA096455}" name="Quantidade" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{8C8730FC-DF7F-4A81-8BE7-FA8E83069F2F}" name="Valor Unitário" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{20A91DCD-305B-46AA-9499-C65F69F7C26A}" name="Valor Total" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{C46F9713-AFF5-45BB-8CC1-93B2BEFB07AC}" name="Região" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3731,202 +4214,205 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B54634-A45F-4386-BD34-B451CAA8D848}">
-  <dimension ref="A1:X26"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection sqref="A1:M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="9">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="9">
-        <v>1200</v>
-      </c>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="9">
-        <v>240</v>
+      <c r="C6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="9">
-        <v>7000</v>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="9">
-        <v>2500</v>
+      <c r="C8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>1200</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="9">
-        <v>300</v>
+      <c r="C9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="C10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="9">
+      <c r="D13" s="10">
         <v>11640</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D24" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="9">
+      <c r="D25">
         <v>1200</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="9">
+      <c r="D26">
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="9">
+      <c r="D27">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="9">
+      <c r="D28">
         <v>7400</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="9">
+      <c r="D29">
         <v>2500</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="9">
+      <c r="D30" s="10">
         <v>11640</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:X2"/>
+    <mergeCell ref="A1:M2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <drawing r:id="rId4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
       <x14:slicerList>
-        <x14:slicer r:id="rId4"/>
+        <x14:slicer r:id="rId5"/>
       </x14:slicerList>
     </ext>
   </extLst>
